--- a/treningstider/Treningstider Vinteren 2015.xlsx
+++ b/treningstider/Treningstider Vinteren 2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f31c1577628fd33/Work/AFK/github/askoyfk.github.io/treningstider/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjetils\Documents\GitHub\askoyfk.github.io\treningstider\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13038" windowHeight="8454" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13038" windowHeight="8454" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lag" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="95">
   <si>
     <t>Dag</t>
   </si>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t>CHECK</t>
-  </si>
-  <si>
-    <t>G2002 fra februar</t>
   </si>
   <si>
     <t>2006 Gutter Puma/2007 Gutter Tiger</t>
@@ -419,7943 +416,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2019">
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <alignment vertical="top" readingOrder="0"/>
     </dxf>
@@ -10408,7 +2469,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -10679,128 +2740,128 @@
     <dataField name="Count of Antall" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="2015">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2014">
+    <format dxfId="30">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="2013">
+    <format dxfId="29">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2012">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2011">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2010">
+    <format dxfId="26">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="2009">
+    <format dxfId="25">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2008">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2007">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2006">
+    <format dxfId="22">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="2005">
+    <format dxfId="21">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2004">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2003">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2002">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="2001">
+    <format dxfId="17">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2000">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1999">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1998">
+    <format dxfId="14">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1997">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1996">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1995">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1994">
+    <format dxfId="10">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1993">
+    <format dxfId="9">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1992">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1991">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1990">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1989">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1988">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1987">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1986">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1985">
+    <format dxfId="1">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1984">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -10834,7 +2895,7 @@
     </tableColumn>
     <tableColumn id="4" name="Trener"/>
     <tableColumn id="5" name="Treninger"/>
-    <tableColumn id="6" name="Deler" dataDxfId="2018" totalsRowDxfId="2017">
+    <tableColumn id="6" name="Deler" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>D2/15</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Ønsker"/>
@@ -10853,7 +2914,7 @@
     <tableColumn id="8" name="Sektor"/>
     <tableColumn id="6" name="Lengde"/>
     <tableColumn id="5" name="Gruppe"/>
-    <tableColumn id="7" name="Antall" dataDxfId="2016">
+    <tableColumn id="7" name="Antall" dataDxfId="32">
       <calculatedColumnFormula>look</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Bekreftet"/>
@@ -11939,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12040,9 +4101,12 @@
       <c r="E4">
         <v>90</v>
       </c>
-      <c r="G4" t="e">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>#N/A</v>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -12061,9 +4125,12 @@
       <c r="E5">
         <v>90</v>
       </c>
-      <c r="G5" t="e">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>#N/A</v>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -12089,9 +4156,6 @@
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
@@ -12115,9 +4179,6 @@
       <c r="G7">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15103,7 +7164,7 @@
         <v>60</v>
       </c>
       <c r="F130" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G130">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
@@ -15241,7 +7302,7 @@
         <v>60</v>
       </c>
       <c r="F136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G136">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
@@ -15539,7 +7600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -15879,7 +7940,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="10">
         <v>1</v>
@@ -15920,7 +7981,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>

--- a/treningstider/Treningstider Vinteren 2015.xlsx
+++ b/treningstider/Treningstider Vinteren 2015.xlsx
@@ -5,18 +5,18 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjetils\Documents\GitHub\askoyfk.github.io\treningstider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SkyDrive\Work\AFK\github\askoyfk.github.io\treningstider\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13038" windowHeight="8454" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13035" windowHeight="8460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lag" sheetId="3" r:id="rId1"/>
     <sheet name="Fordeling" sheetId="1" r:id="rId2"/>
     <sheet name="Oversikt" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="96">
   <si>
     <t>Dag</t>
   </si>
@@ -314,12 +314,15 @@
   </si>
   <si>
     <t>2005 Jenter Skogmus</t>
+  </si>
+  <si>
+    <t>Veteran 50+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2905,8 +2908,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Fordeling" displayName="Fordeling" ref="A1:J149" totalsRowShown="0">
-  <autoFilter ref="A1:J149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Fordeling" displayName="Fordeling" ref="A1:J153" totalsRowShown="0">
+  <autoFilter ref="A1:J153"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Dag"/>
     <tableColumn id="2" name="Fra"/>
@@ -3194,17 +3197,17 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.578125" customWidth="1"/>
-    <col min="2" max="2" width="11.41796875" customWidth="1"/>
-    <col min="3" max="3" width="13.578125" customWidth="1"/>
-    <col min="4" max="4" width="10.578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.41796875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -3851,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3881,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41">
         <f>SUM(Grupper[SerieLag])</f>
         <v>43</v>
@@ -3998,20 +4001,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="33.68359375" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="21.41796875" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4451,7 +4454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4535,7 +4538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -4559,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -4847,7 +4850,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -4958,7 +4961,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -5009,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -5171,7 +5174,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -5225,7 +5228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -5441,7 +5444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -5891,7 +5894,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -5933,7 +5936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -6059,7 +6062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -6185,7 +6188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -6335,7 +6338,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -6419,7 +6422,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -6443,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -6491,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -6563,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -6611,7 +6614,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -6632,7 +6635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -6653,7 +6656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -6684,7 +6687,7 @@
       </c>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -6709,7 +6712,7 @@
       </c>
       <c r="J111" s="6"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -6771,7 +6774,7 @@
         <v>21</v>
       </c>
       <c r="E114">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F114" t="s">
         <v>77</v>
@@ -6781,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -6795,7 +6798,7 @@
         <v>22</v>
       </c>
       <c r="E115">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F115" t="s">
         <v>77</v>
@@ -6805,12 +6808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="C116" t="s">
         <v>26</v>
@@ -6819,25 +6822,22 @@
         <v>21</v>
       </c>
       <c r="E116">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F116" t="s">
-        <v>88</v>
-      </c>
-      <c r="G116">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>1</v>
-      </c>
-      <c r="J116" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+      <c r="G116" s="12" t="e">
+        <f>look</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="C117" t="s">
         <v>26</v>
@@ -6846,25 +6846,22 @@
         <v>22</v>
       </c>
       <c r="E117">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F117" t="s">
-        <v>88</v>
-      </c>
-      <c r="G117">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>1</v>
-      </c>
-      <c r="J117" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+      <c r="G117" s="12" t="e">
+        <f>look</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C118" t="s">
         <v>26</v>
@@ -6875,23 +6872,23 @@
       <c r="E118">
         <v>60</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>55</v>
+      <c r="F118" t="s">
+        <v>88</v>
       </c>
       <c r="G118">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
       <c r="B119">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C119" t="s">
         <v>26</v>
@@ -6902,23 +6899,23 @@
       <c r="E119">
         <v>60</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>53</v>
+      <c r="F119" t="s">
+        <v>88</v>
       </c>
       <c r="G119">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
       <c r="B120">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C120" t="s">
         <v>26</v>
@@ -6929,20 +6926,23 @@
       <c r="E120">
         <v>60</v>
       </c>
-      <c r="F120" t="s">
-        <v>43</v>
+      <c r="F120" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G120">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
       <c r="B121">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C121" t="s">
         <v>26</v>
@@ -6953,20 +6953,23 @@
       <c r="E121">
         <v>60</v>
       </c>
-      <c r="F121" t="s">
-        <v>43</v>
+      <c r="F121" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G121">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
       <c r="B122">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C122" t="s">
         <v>26</v>
@@ -6978,19 +6981,19 @@
         <v>60</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G122">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
       <c r="B123">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C123" t="s">
         <v>26</v>
@@ -7002,19 +7005,19 @@
         <v>60</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G123">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
       <c r="B124">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C124" t="s">
         <v>26</v>
@@ -7026,19 +7029,19 @@
         <v>60</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G124">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
       <c r="B125">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C125" t="s">
         <v>26</v>
@@ -7050,19 +7053,19 @@
         <v>60</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G125">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B126">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="C126" t="s">
         <v>26</v>
@@ -7073,17 +7076,20 @@
       <c r="E126">
         <v>60</v>
       </c>
-      <c r="G126" t="e">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F126" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B127">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="C127" t="s">
         <v>26</v>
@@ -7094,17 +7100,20 @@
       <c r="E127">
         <v>60</v>
       </c>
-      <c r="G127" t="e">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
       <c r="B128">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C128" t="s">
         <v>26</v>
@@ -7115,20 +7124,17 @@
       <c r="E128">
         <v>60</v>
       </c>
-      <c r="F128" t="s">
-        <v>50</v>
-      </c>
-      <c r="G128">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G128" t="e">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
       <c r="B129">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C129" t="s">
         <v>26</v>
@@ -7139,20 +7145,17 @@
       <c r="E129">
         <v>60</v>
       </c>
-      <c r="F129" t="s">
-        <v>50</v>
-      </c>
-      <c r="G129">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G129" t="e">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
       <c r="B130">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C130" t="s">
         <v>26</v>
@@ -7164,19 +7167,19 @@
         <v>60</v>
       </c>
       <c r="F130" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G130">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>9</v>
       </c>
       <c r="B131">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C131" t="s">
         <v>26</v>
@@ -7188,19 +7191,19 @@
         <v>60</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G131">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>9</v>
       </c>
       <c r="B132">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C132" t="s">
         <v>26</v>
@@ -7209,22 +7212,22 @@
         <v>21</v>
       </c>
       <c r="E132">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F132" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="G132">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
       <c r="B133">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C133" t="s">
         <v>26</v>
@@ -7233,22 +7236,22 @@
         <v>22</v>
       </c>
       <c r="E133">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F133" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G133">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B134">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="C134" t="s">
         <v>26</v>
@@ -7257,19 +7260,22 @@
         <v>21</v>
       </c>
       <c r="E134">
-        <v>60</v>
-      </c>
-      <c r="G134" t="e">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="F134" t="s">
+        <v>77</v>
+      </c>
+      <c r="G134">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B135">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="C135" t="s">
         <v>26</v>
@@ -7278,19 +7284,22 @@
         <v>22</v>
       </c>
       <c r="E135">
-        <v>60</v>
-      </c>
-      <c r="G135" t="e">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="F135" t="s">
+        <v>77</v>
+      </c>
+      <c r="G135">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>10</v>
       </c>
       <c r="B136">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C136" t="s">
         <v>26</v>
@@ -7301,20 +7310,17 @@
       <c r="E136">
         <v>60</v>
       </c>
-      <c r="F136" t="s">
-        <v>94</v>
-      </c>
-      <c r="G136">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G136" t="e">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>10</v>
       </c>
       <c r="B137">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C137" t="s">
         <v>26</v>
@@ -7330,12 +7336,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>10</v>
       </c>
       <c r="B138">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C138" t="s">
         <v>26</v>
@@ -7347,19 +7353,19 @@
         <v>60</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G138">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>10</v>
       </c>
       <c r="B139">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C139" t="s">
         <v>26</v>
@@ -7370,20 +7376,17 @@
       <c r="E139">
         <v>60</v>
       </c>
-      <c r="F139" t="s">
-        <v>47</v>
-      </c>
-      <c r="G139">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G139" t="e">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
       <c r="B140">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C140" t="s">
         <v>26</v>
@@ -7392,19 +7395,22 @@
         <v>21</v>
       </c>
       <c r="E140">
-        <v>90</v>
-      </c>
-      <c r="G140" t="e">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+      <c r="F140" t="s">
+        <v>47</v>
+      </c>
+      <c r="G140">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>10</v>
       </c>
       <c r="B141">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C141" t="s">
         <v>26</v>
@@ -7413,19 +7419,22 @@
         <v>22</v>
       </c>
       <c r="E141">
-        <v>90</v>
-      </c>
-      <c r="G141" t="e">
-        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+      <c r="F141" t="s">
+        <v>47</v>
+      </c>
+      <c r="G141">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B142">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="C142" t="s">
         <v>26</v>
@@ -7434,19 +7443,19 @@
         <v>21</v>
       </c>
       <c r="E142">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G142" t="e">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B143">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="C143" t="s">
         <v>26</v>
@@ -7455,19 +7464,19 @@
         <v>22</v>
       </c>
       <c r="E143">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G143" t="e">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>11</v>
       </c>
       <c r="B144">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C144" t="s">
         <v>26</v>
@@ -7483,12 +7492,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>11</v>
       </c>
       <c r="B145">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C145" t="s">
         <v>26</v>
@@ -7504,12 +7513,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>11</v>
       </c>
       <c r="B146">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C146" t="s">
         <v>26</v>
@@ -7525,12 +7534,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>11</v>
       </c>
       <c r="B147">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C147" t="s">
         <v>26</v>
@@ -7546,12 +7555,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>11</v>
       </c>
       <c r="B148">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C148" t="s">
         <v>26</v>
@@ -7560,19 +7569,19 @@
         <v>21</v>
       </c>
       <c r="E148">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G148" t="e">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
       <c r="B149">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C149" t="s">
         <v>26</v>
@@ -7581,11 +7590,101 @@
         <v>22</v>
       </c>
       <c r="E149">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G149" t="e">
         <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150">
+        <v>1900</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150">
+        <v>60</v>
+      </c>
+      <c r="G150" t="e">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151">
+        <v>1900</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151">
+        <v>60</v>
+      </c>
+      <c r="G151" t="e">
+        <f>VLOOKUP(Fordeling[[#This Row],[Gruppe]], Grupper[],3)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152">
+        <v>2000</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152">
+        <v>90</v>
+      </c>
+      <c r="F152" t="s">
+        <v>95</v>
+      </c>
+      <c r="G152" s="12" t="e">
+        <f>look</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153">
+        <v>2000</v>
+      </c>
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153">
+        <v>90</v>
+      </c>
+      <c r="F153" t="s">
+        <v>95</v>
+      </c>
+      <c r="G153" s="12" t="e">
+        <f>look</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -7607,75 +7706,75 @@
       <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.26171875" customWidth="1"/>
-    <col min="2" max="2" width="14.3125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="2.68359375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.68359375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="4.68359375" customWidth="1"/>
-    <col min="9" max="9" width="8.41796875" customWidth="1"/>
-    <col min="10" max="15" width="4.68359375" customWidth="1"/>
-    <col min="16" max="16" width="8.578125" customWidth="1"/>
-    <col min="17" max="22" width="4.68359375" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="2.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="22" width="4.7109375" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
-    <col min="24" max="29" width="4.68359375" customWidth="1"/>
-    <col min="30" max="30" width="8.15625" customWidth="1"/>
-    <col min="31" max="36" width="4.68359375" customWidth="1"/>
-    <col min="37" max="37" width="8.41796875" customWidth="1"/>
-    <col min="38" max="45" width="4.68359375" customWidth="1"/>
-    <col min="46" max="46" width="8.41796875" customWidth="1"/>
-    <col min="47" max="49" width="4.68359375" customWidth="1"/>
-    <col min="50" max="50" width="8.83984375" customWidth="1"/>
-    <col min="51" max="51" width="8.578125" customWidth="1"/>
-    <col min="52" max="52" width="8.41796875" customWidth="1"/>
-    <col min="53" max="55" width="8.578125" customWidth="1"/>
-    <col min="56" max="56" width="8.41796875" customWidth="1"/>
-    <col min="57" max="59" width="8.578125" customWidth="1"/>
-    <col min="60" max="60" width="8.41796875" customWidth="1"/>
-    <col min="61" max="63" width="8.578125" customWidth="1"/>
-    <col min="64" max="64" width="8.41796875" customWidth="1"/>
-    <col min="65" max="67" width="8.578125" customWidth="1"/>
-    <col min="68" max="68" width="8.41796875" customWidth="1"/>
-    <col min="69" max="71" width="8.578125" customWidth="1"/>
-    <col min="72" max="72" width="8.41796875" customWidth="1"/>
-    <col min="73" max="75" width="8.578125" customWidth="1"/>
-    <col min="76" max="76" width="8.41796875" customWidth="1"/>
-    <col min="77" max="79" width="8.578125" customWidth="1"/>
-    <col min="80" max="80" width="8.41796875" customWidth="1"/>
-    <col min="81" max="83" width="8.578125" customWidth="1"/>
-    <col min="84" max="84" width="8.41796875" customWidth="1"/>
-    <col min="85" max="87" width="8.578125" customWidth="1"/>
-    <col min="88" max="88" width="8.41796875" customWidth="1"/>
-    <col min="89" max="91" width="8.578125" customWidth="1"/>
-    <col min="92" max="92" width="8.41796875" customWidth="1"/>
-    <col min="93" max="95" width="8.578125" customWidth="1"/>
-    <col min="96" max="96" width="8.41796875" customWidth="1"/>
-    <col min="97" max="97" width="8.578125" customWidth="1"/>
-    <col min="98" max="99" width="4.68359375" customWidth="1"/>
+    <col min="24" max="29" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" customWidth="1"/>
+    <col min="31" max="36" width="4.7109375" customWidth="1"/>
+    <col min="37" max="37" width="8.42578125" customWidth="1"/>
+    <col min="38" max="45" width="4.7109375" customWidth="1"/>
+    <col min="46" max="46" width="8.42578125" customWidth="1"/>
+    <col min="47" max="49" width="4.7109375" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" customWidth="1"/>
+    <col min="51" max="51" width="8.5703125" customWidth="1"/>
+    <col min="52" max="52" width="8.42578125" customWidth="1"/>
+    <col min="53" max="55" width="8.5703125" customWidth="1"/>
+    <col min="56" max="56" width="8.42578125" customWidth="1"/>
+    <col min="57" max="59" width="8.5703125" customWidth="1"/>
+    <col min="60" max="60" width="8.42578125" customWidth="1"/>
+    <col min="61" max="63" width="8.5703125" customWidth="1"/>
+    <col min="64" max="64" width="8.42578125" customWidth="1"/>
+    <col min="65" max="67" width="8.5703125" customWidth="1"/>
+    <col min="68" max="68" width="8.42578125" customWidth="1"/>
+    <col min="69" max="71" width="8.5703125" customWidth="1"/>
+    <col min="72" max="72" width="8.42578125" customWidth="1"/>
+    <col min="73" max="75" width="8.5703125" customWidth="1"/>
+    <col min="76" max="76" width="8.42578125" customWidth="1"/>
+    <col min="77" max="79" width="8.5703125" customWidth="1"/>
+    <col min="80" max="80" width="8.42578125" customWidth="1"/>
+    <col min="81" max="83" width="8.5703125" customWidth="1"/>
+    <col min="84" max="84" width="8.42578125" customWidth="1"/>
+    <col min="85" max="87" width="8.5703125" customWidth="1"/>
+    <col min="88" max="88" width="8.42578125" customWidth="1"/>
+    <col min="89" max="91" width="8.5703125" customWidth="1"/>
+    <col min="92" max="92" width="8.42578125" customWidth="1"/>
+    <col min="93" max="95" width="8.5703125" customWidth="1"/>
+    <col min="96" max="96" width="8.42578125" customWidth="1"/>
+    <col min="97" max="97" width="8.5703125" customWidth="1"/>
+    <col min="98" max="99" width="4.7109375" customWidth="1"/>
     <col min="100" max="100" width="13" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="102" max="104" width="4.68359375" customWidth="1"/>
-    <col min="105" max="105" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="108" max="110" width="4.68359375" customWidth="1"/>
-    <col min="111" max="111" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="113" max="115" width="4.68359375" customWidth="1"/>
-    <col min="116" max="116" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="118" max="120" width="4.68359375" customWidth="1"/>
+    <col min="101" max="101" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="102" max="104" width="4.7109375" customWidth="1"/>
+    <col min="105" max="105" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="110" width="4.7109375" customWidth="1"/>
+    <col min="111" max="111" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="113" max="115" width="4.7109375" customWidth="1"/>
+    <col min="116" max="116" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="118" max="120" width="4.7109375" customWidth="1"/>
     <col min="121" max="121" width="13" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="123" max="125" width="4.68359375" customWidth="1"/>
-    <col min="126" max="126" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="123" max="125" width="4.7109375" customWidth="1"/>
+    <col min="126" max="126" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -7683,7 +7782,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -7693,7 +7792,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -7712,7 +7811,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -7731,7 +7830,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -7750,7 +7849,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -7769,7 +7868,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -7784,7 +7883,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -7799,7 +7898,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -7814,7 +7913,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -7833,7 +7932,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -7848,7 +7947,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -7867,7 +7966,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
@@ -7882,7 +7981,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -7895,7 +7994,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -7908,7 +8007,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -7923,7 +8022,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -7938,7 +8037,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -7951,7 +8050,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -7966,7 +8065,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -7979,7 +8078,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>93</v>
       </c>
@@ -7992,7 +8091,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -8007,7 +8106,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -8020,7 +8119,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -8033,7 +8132,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
@@ -8046,7 +8145,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
@@ -8059,7 +8158,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -8072,7 +8171,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -8083,7 +8182,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
@@ -8094,7 +8193,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>8</v>
       </c>
@@ -8105,7 +8204,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>1800</v>
       </c>
@@ -8120,7 +8219,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
@@ -8131,7 +8230,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>25</v>
       </c>
@@ -8150,7 +8249,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>26</v>
       </c>
@@ -8161,7 +8260,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>1</v>
       </c>
@@ -8172,7 +8271,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>1600</v>
       </c>
@@ -8187,7 +8286,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
@@ -8198,7 +8297,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>1600</v>
       </c>
@@ -8213,7 +8312,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>9</v>
       </c>
@@ -8224,7 +8323,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>1600</v>
       </c>
@@ -8239,7 +8338,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>10</v>
       </c>
@@ -8250,7 +8349,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>1600</v>
       </c>
@@ -8265,7 +8364,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>1700</v>
       </c>
@@ -8278,7 +8377,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>1900</v>
       </c>
@@ -8293,7 +8392,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>11</v>
       </c>
@@ -8304,7 +8403,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>1600</v>
       </c>
@@ -8319,7 +8418,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>1700</v>
       </c>
@@ -8334,7 +8433,7 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>1800</v>
       </c>
@@ -8349,7 +8448,7 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>1900</v>
       </c>
@@ -8364,7 +8463,7 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -8372,7 +8471,7 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -8380,7 +8479,7 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -8388,7 +8487,7 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -8396,7 +8495,7 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -8404,7 +8503,7 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -8412,7 +8511,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -8420,7 +8519,7 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -8428,7 +8527,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -8436,7 +8535,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -8444,7 +8543,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -8452,7 +8551,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -8460,7 +8559,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -8468,7 +8567,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -8476,7 +8575,7 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -8484,7 +8583,7 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -8492,7 +8591,7 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -8500,7 +8599,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -8508,7 +8607,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -8516,7 +8615,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -8524,7 +8623,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -8532,7 +8631,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -8540,7 +8639,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -8548,7 +8647,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -8556,7 +8655,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -8564,7 +8663,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -8572,7 +8671,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -8580,7 +8679,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -8588,7 +8687,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -8596,7 +8695,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -8604,7 +8703,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -8612,7 +8711,7 @@
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -8620,7 +8719,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -8628,7 +8727,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -8636,7 +8735,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -8644,7 +8743,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -8652,7 +8751,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -8660,7 +8759,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -8668,7 +8767,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -8676,7 +8775,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -8684,7 +8783,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
@@ -8692,7 +8791,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
@@ -8700,7 +8799,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -8708,7 +8807,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
@@ -8716,7 +8815,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -8724,19 +8823,19 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
